--- a/Dialog box plan.xlsx
+++ b/Dialog box plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Programming\GitHub repositories\cSLO_image_compilation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E3708B-5B20-438D-9B83-B470AEFF0AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543DF8DC-8986-4050-B083-8562D9DF10E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28335" yWindow="360" windowWidth="18960" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27435" yWindow="1680" windowWidth="21060" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,10 +147,10 @@
     <t>{Delete preset}</t>
   </si>
   <si>
-    <t>{Preview images}</t>
-  </si>
-  <si>
     <t>{Preview layout}</t>
+  </si>
+  <si>
+    <t>{Preview layout + images}</t>
   </si>
 </sst>
 </file>
@@ -208,11 +208,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,19 +556,19 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -580,9 +581,11 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -654,13 +657,13 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -696,10 +699,10 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
         <v>41</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
       </c>
       <c r="D31" t="s">
         <v>31</v>
